--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/24_Çorum_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/24_Çorum_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{204CA1EF-BAE7-431E-83EF-9256A052AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{047B18F5-C370-4522-A55F-85C3166786DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{0B881455-9CF5-4A90-83A7-CA28A5BB51D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{167C6F1F-7313-4F5F-BBC7-25751A42295D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -964,13 +964,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F5F2F818-BEC6-4C32-9341-1E9BABE23B97}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{83356EFB-7A89-4A7E-99A8-E4400551880D}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{355AD3F2-5CBB-4311-95C1-F80DE5A21D64}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5721C405-2619-4BF9-947D-F29E08CEC58C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3C44E0D8-B782-4FF9-B5E7-E3C15DB05F52}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8B0FB315-5C3D-4FAF-9210-139EC64825FC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{999DABF7-3CD0-4497-B20E-343FC868CFEC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3F5CC77F-D578-412D-9316-36E13C0C0BFC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0EAD1769-436B-4A21-A750-366545FD1F67}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{62CCAE4F-870F-481D-80AA-1028F591A25A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{39850B90-7F4E-4156-86CA-D449D90F4737}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D9D65090-6290-4EBE-B726-15EE883D9DB9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{A1D97A07-5A23-477A-83B9-8361FAFB33AF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{252C84A9-743C-45AD-9F6D-FCCF993863EA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE2F8D9-0D73-42C4-9233-69244A488BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6741BFD-81BF-4DD5-B545-DF8722CB943F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2611,18 +2611,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5634CD6A-20C8-456F-B25E-2EB3731B9F4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7343D8CF-BCBF-4224-9480-26521DF14A5A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5EABC35E-ED76-4085-AA89-1B20EBAA5B99}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1716BA3-D73C-4233-9906-E26717ACD253}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1ABA23C5-9A67-477A-9DBC-DB7A01AC9105}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{958557C7-4965-42F2-9DBB-D6A1F80542A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{950FF1C4-ADDD-4BDE-B8A1-8A15BB449C3E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B35C0726-C9E7-4A11-BFCF-5E8D3528B5EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC9867D9-1BE6-4EDA-BB81-276140021F00}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{48620260-22D4-451F-9679-5724C5D75986}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06F608EF-23DC-4A3F-9F14-B1CC9E58D775}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A47F6AD-F82B-4DBE-AE3A-845B011B411B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79E12849-4C82-4CBD-B8A3-869141FD7986}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BEFA630-912D-4702-B014-474A92DAC408}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C6F5B8D-1EA3-4BD2-B746-9355C81C366E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16F6DB48-AD83-4D3D-97D8-E35F0881FF55}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D13BF40-000C-4464-B299-ADEE53F80168}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E7AD4D0A-AA64-40F5-8A82-AFB530C3C7DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26BA1ECB-756B-435B-948A-57BA3C2394C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D51BF090-7B27-4B72-B390-FBD8726DF483}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{634E1B31-D4B4-4C4A-A642-936161C5492B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1DF9B3B7-56B1-46CA-B804-F7E3D10C4605}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B9C00F1-44F2-46A1-8DBC-263B98366A99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{648D2AC5-9A25-4A88-90FA-4B27D71DCF14}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2635,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EADB24-8FFD-4BB3-B9C8-28398D976D75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94254C8A-4DAD-4D9B-81E8-5BC60903A81F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3865,18 +3865,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A875A095-1DD4-48DA-92E7-2F7A2A7CC720}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6428ABB6-C15D-40E6-9957-1B098471996C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96E049A1-93A9-4DFE-B853-D35E1D63B19C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B62E054A-4F1D-4916-B643-6A1A7EC881AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C361B804-C8CF-4D67-81C3-03FE4DF4297D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F25FFCB8-8E59-45AF-A912-FC90B2427816}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9BB0394-4526-4B8A-A2B3-7AC2F8413C26}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{212C7589-E3B1-4898-9AF7-A2CBCB0C8766}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BE817F4-752A-497D-AFE9-D3D219FC3AE2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3169F17D-1506-4225-B521-DFC17B22ADDF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E5D64DB-34F7-4938-8FB3-F2775FE141DC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{496AC0B8-3931-4DAA-A30E-B5E3233C7292}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D2FC5B9-8967-4198-B3CE-65B0C032D0E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8E93190-02B6-4951-B2D8-0FAC66CF45B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C38C7B2-7047-40E9-A847-07BEB89FA47F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2641E984-5D80-445B-9000-53FD6BFA90A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4DF4F174-1854-4B13-B2DE-B9390111219F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C794B78-32CD-455F-A0F3-1E28848E8BE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{922EEAD2-2C2D-4D7D-803E-437C72B01AF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F549762C-223D-4BDF-8874-E22FCA1ABF66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{12337FE8-75C8-4952-AB32-73D1B2082078}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A578855F-5ABE-4E79-AA16-2932723671DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63F87D41-BCD6-4B74-A654-BE37F90A3FDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3FB8459-3D36-4EFC-ACFB-BECE7F4C771B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3889,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CC43A5-F52D-44C9-AF02-A05E474AFA34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744AF12-CDF7-457E-BB3B-1D5F302ACFFA}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5119,18 +5119,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10FCC6C5-D0F5-4734-A221-E250E1FB70BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76D37009-0608-4E58-A648-9267E255325A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E2C6805-E0F2-4AC5-BB10-B9C3BD25A7C5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F9A456B-0E01-4277-A6A0-4947CFD0C701}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD8DDB9D-F5C9-43BA-9946-6B11F7EAF3B2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B1D66DB4-7E62-46FE-A18C-5A3CE11473C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E833C2EE-AE14-4BF2-BB70-FD46F0D26938}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9424AC5-4673-49B3-8624-7D591E09EC75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECA886B7-501E-4475-BFAE-56A1EA0B7053}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{44902B9A-C8CE-4ACB-9868-0C047F57B432}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27463D83-5714-4404-8FED-7BDE1FFBD721}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0AF8D03B-F34A-46EE-BE34-5B0A6D4DC319}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC9A0F19-EAA6-4783-B418-FA7B16C82F49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{693AA338-6977-409E-BC9F-CBD3283C81E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D4F596CF-1AFB-46B5-AAE8-EE76B054B56F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF170D03-CFB1-418E-AF4C-CD4F8F36FB57}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6474A097-1DD4-4EE8-82F6-4EEFDBA6AECA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F0D0305-37F7-45AB-86EB-F52A36BB48AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{269CD229-1D6C-491F-9FFB-6635E15B0F2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72CF4569-1768-44BD-839D-1EBE2220FD27}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65C532F7-FAD0-4006-8D68-7678B96B2A24}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{201A4D72-8345-4C2F-8EBE-46EBA411B5C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D91A6A32-1F80-4D0B-A4A6-DF37E365FD34}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67838B19-16BA-4734-9C56-61370B429327}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5143,7 +5143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044FFD10-FC0F-4400-97BF-A61C9BE5E04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8545338-23C4-431E-96C1-EFC655A0EB32}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6369,18 +6369,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3ADEDF2B-0907-46EC-A3B0-F70FDAD0D2F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A3FF0A7-8884-4596-BFA0-FA565EFD0450}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA401957-BB43-4B47-A1C3-6B13546D39A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5444ED9-5886-4F10-9B72-4EA3143142AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38F07C25-901B-4E1C-9E5A-CF82D4DA89D3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE73D2FA-4532-4B73-9E23-4D9E3613358A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA9EA641-D0E9-48ED-B11B-0FD53826B9A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBA053F4-12EB-4073-80C0-D7EBF32E9587}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3D7013D-002D-4F78-9FA1-F1333EFDADA7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3A30F5B1-3CD5-4134-8484-E163665562AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD783A27-97C9-4722-A525-8BE0D918A28F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{568B76C3-DE1E-4998-A4BC-E344EA606574}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E2DBDDE-1EA1-419B-A94F-B1591C4FBC03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A33014E8-4192-4A05-8770-FCDF71943740}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8483B91-4E80-4991-ACE3-64847008206E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F36378EC-66A0-48BE-94B4-C0525A18C37E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D8ECA68-E82A-4D3F-B47A-8289B54FFC54}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{706739CD-68E6-4918-9FA0-AC7E6C572DE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7709F9B3-54FA-4095-87E5-11684F5CA2B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C018B38A-46FA-4CBC-A0D2-FA5533F938FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2934E3C-578F-4990-8D41-245FDAA5922A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A09E4344-DC14-41CC-994C-6FDA7140DA8E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8231CA32-D091-4E7F-B086-07F5C3F743DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FFBECC9-8092-456F-85ED-50C5E2C78C1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6393,7 +6393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E43D560-71AC-424B-91ED-40B6616790E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5066B3BA-3A32-4CBC-A503-DBCAE6916B4F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7664,18 +7664,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A96362AF-3A30-4906-A1AE-3C7EDE9C9917}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73E803E5-FB8B-40A2-A510-8E35812BD386}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D441D5A3-26C9-4830-857D-6CB4E44683E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{311D6DF1-C9B7-47AF-A76A-598CB5135DA7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B49CAFB6-7CCE-4CBD-B737-AC4DE02B9E54}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{66F213BA-1D0D-45C6-B8E2-A880DBB5CD79}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4EA5803-8BAB-4537-8F4A-E0E2D2A3AF14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B7C2E5A-447E-468B-BC5E-B304EA61270E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1C92EA3-3F56-49CD-A934-B12531C98F34}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{18CF4E85-6E73-4B20-AA2E-FDBB843DAF3F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{437DC08C-0477-4530-A0FA-543BA4925EB0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{461CA21F-A773-4367-8875-C0044D81A1C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB5ECDE5-514A-476F-B6F1-74A4AF8E949D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC0F0DEC-2E83-4D53-A4CA-48FAC840EC09}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC3C2D63-F636-4932-B911-729ADC2686F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA8CBC17-6576-47AF-8068-F09EBC7EED85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE3BE015-285A-49AD-8C1E-2CD96C9D8606}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1FF9C5C-0169-4684-A79E-B7BA6FB6B4D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AA8B0AA-CD0F-4F65-BD6E-803A31958E33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9621CDF8-8504-4C52-94E7-A6454CB34992}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DB98A80-51EF-4E5E-8CA3-449A1D59B706}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DCF16E9E-AE96-48B4-B7EE-C08CDD6CE126}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CBCB27B-3235-4691-B2E0-968C09D4BFCC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{145EB60B-618B-4AA4-814C-AF64E82FB34F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7688,7 +7688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5B3228-7A27-41C4-A90F-4C76C0283649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3C1B74-A381-4196-9380-238FE2DC808D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8959,18 +8959,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06F48117-C3B4-4D4F-9417-80547F8D70CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6DDE126-11EE-4418-AD04-B71B82F61E38}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0740071F-C269-4F27-97C8-8B8234C0C578}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63C787D6-1305-42AD-81B8-02F9BDC6CD44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7C667E4-29BB-4EA2-9085-14E3F7E29E05}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{776CD679-14DD-46A4-832A-A9A290183C5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8A9B9B9-7521-48E2-9146-B94EB06FA204}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{345BBC5C-A898-43FC-9296-77C20AF62D50}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AED02F38-79AD-47C3-BA60-9E1B0C1FD8C5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3E4E64EC-AFE0-42E6-A17D-84F9E1636FAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{875D3CB6-5A92-46AA-A104-0F0244F51FFD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17374391-B19A-4C4C-9FED-4DB88E3F1228}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C66C4A5-9ACF-4C4D-91C3-8FC56715A9AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77DFE6B3-B4DF-43E7-9AB5-DC1E9E947AB1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46350B09-2C4C-4E57-ACD5-BD80F88AEE1D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66A45F00-ADC3-4C95-8AE1-11A38EF58C7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FE2692A-F689-42D2-B497-BE34C859D59B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CF41ECAB-FFFF-400F-9F9A-C58E6B71B993}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A50B88E9-5168-4502-8C78-4B46763FEF9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DC2EC84-0999-4C7E-83AF-6C805CEFC43B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B012DCE1-ABB1-4335-B328-0101707B968F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A22CAE4E-9E26-4A89-8085-15AEB8B8CC0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9971ECC-444B-44B1-BA75-B66361064412}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1A154EE-7063-493F-9542-5D0629ADA246}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8983,7 +8983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98000E0-7B33-4250-9985-0012362EC0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA102B-6660-495E-80C5-E67C853BE48F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10250,18 +10250,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2236562-3A09-495F-969D-F1ABD0792046}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F34808B5-3092-4B8E-A5C6-D570F42FE9A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{75B311AB-8503-4033-BBD4-7B920DE98718}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7398FD6-9FD4-4870-A105-D3565282E4A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7BD173F5-3B26-4F63-BF3D-1337114DBF3F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BF326C7F-E8CD-45FB-A409-1A8E6519E90D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8509C53E-EB4A-4296-A30B-C5BFD167756E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4DC2748-CBD7-4B89-8973-3F1B4E1D8D1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9217D98F-CA90-4232-8F61-17643186DE4A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6413065C-7212-4463-86E3-14098F4D04EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9490F3EB-08F7-448A-8E4D-1159067D38A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA419D01-D227-4740-B92E-B8752B4416E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11FBCE51-1A11-41A8-AE4B-5BA02918EAA7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{630F1D4A-B6A7-4637-8AB5-617C9358E15A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10BD7129-AA0E-4B00-A5E2-28F1910EA851}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43F793E2-486C-4F41-9331-14B0267DF1A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B529F524-62D8-4A0A-BA20-5C0A235F405E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16DF2F92-135D-423D-821E-411C462A183E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{044F5917-A35C-4CB1-9170-EDB29BCAF499}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AA5A010-D200-4DAA-B4A9-FF069A7BC826}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDE7A347-EC18-404A-912B-CAAC49872E88}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0A038F57-74E6-4685-BD22-2F0396A62E10}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C481B2F-4495-41A7-A3DE-92D97163018B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B46E29C1-7A9B-4FD9-B9AC-67AA9F7018EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10274,7 +10274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848AFAD1-4B8F-461F-A3DA-419E51928D5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C84A137-E114-42A8-9733-2564DA1F2619}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11541,18 +11541,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0040598-2FC7-4469-ADBE-37D7D5E58FF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F91AF87C-475A-466B-A93B-BDB7743DBD60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16A854A6-6C6C-478F-A0C5-50F355959BB9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0D3769D-9D5F-4AC7-87B0-FE587306E639}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5D8DD92-C857-4FC4-B78D-F747A4ACC70C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{549B207A-CA50-410E-BE45-11DFBD7B2DEE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DA05E48-25BF-4018-AFE4-6777AA1A09D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED54CA3B-84B2-444F-AEEA-B7E298E22162}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47274448-0420-47E9-9956-EEFA436611A9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{15E0FA0B-BBF5-47FB-9CA7-75E6B4A2C544}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5523AC94-DC5A-4797-BA4C-EE2E9B0663E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B733E9B-B288-4B30-8EDE-7CBBF3F7A6DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B4F9038-CAB2-468F-8B72-3EFF75619593}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{252AA4E7-C095-401F-A8A8-CDE79AAC3A1F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5B817CD-4643-4DFD-A970-BA19FFA46A08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6DBBE69F-69D0-464B-B791-15C07BE32DDA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC84F0DB-5AA0-443A-857A-B2F347957C2D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8B42320E-4344-43BF-ACF8-B07357D0BE08}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C8B495C-B89D-4F25-8771-81DC99850906}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF8D08AC-8F38-4580-B2F6-AD83FDF5025F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19FA783A-61CD-4741-8740-C09D50D5736E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1466B810-DAF9-4A91-8EE6-31F44F2C57B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80DBF4D5-20FE-4CEF-9117-0842D3049D1B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18DA01EE-9FA4-4014-9F08-55AEF0CFE74D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11565,7 +11565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086EBD4E-ADD3-4128-9861-24B90AE80596}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D105782-69BF-43E7-9A16-6BF2C394D1CE}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12821,18 +12821,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B33DD498-6A3D-42F0-98AD-6E2C2EEA948E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BE2F700-CA4D-4C00-93CA-22392169EF79}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70586FDD-0A60-4A81-BDD6-856DF8AF901F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0357B9D-C7F0-4C87-8D06-91A9BF6221FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC65F7EE-F18C-490B-9798-28D8ADDC3D7B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F801809-4262-452C-BB3D-0369378AED19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A42BE459-E865-4B85-B7C9-1AE146EB58E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04698A25-F14E-4FF4-85C4-81C5522BBDCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F6DF38F-4BA8-4A88-A417-8302EF45244A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C837E959-6716-4F80-B085-1481D76BE9CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C113CE2-0050-4983-A83B-9CCCC8398B9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40F3C71A-AA2E-4B47-802F-AC342B4C2B9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{676A96BD-C625-40F4-B048-D517724CD5C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{703CA636-7FD6-41DD-8842-E2856BDB9F66}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13B31107-F835-40ED-88D3-CB7A4534169A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26BDD0F3-4E04-4195-8A2E-7B6776C8ECC9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4FC10DEE-C9B4-41C0-B704-89E5C2863758}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB5FCFC8-20BC-4235-98A2-0C483F04F20F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{250AC61C-8712-4239-9DF4-D08F9B963D06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74B4DEE9-20D3-4F75-B956-09DBDCD79A2E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42B2A00D-71D3-407C-A2FD-6425BC1DD0E4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE38B701-BD7B-4005-9762-6CEBFA351106}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{991182CB-99BF-4077-9BB3-69839339F1CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF70C3A0-AE98-4339-AE0C-365CE403BD53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12845,7 +12845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0E6BDD-7D77-455C-A8BE-683EB5B29285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C0FD2F-F804-4FEA-BCAD-0B8E3232A511}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14083,18 +14083,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F5E4031-E756-4645-803F-B37BB3A93BAF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{970B3B84-217E-4896-9477-D794324DA641}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{84174CC9-8A4B-40A5-9A52-80EF6B6B86B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BDE265E-2158-4D82-BCA7-3079D2478142}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{109AD7E1-87C0-4D9A-8F1B-28A1747DD92F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D569BBA9-6206-43E6-A2EA-913D856E9210}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{005F278C-A4B7-46F7-B6D7-BF567E976BF6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7A1BFE5-0F60-4FDD-B150-2EDB50BEEA61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D8213DE-56CB-4456-A154-2FE15E0E52C6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6926F896-4D1E-4F61-B2AA-D39868E53C0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF36142B-DD04-4277-B4FD-31EB2DA05C43}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0021E1E1-5FEA-4EA8-84B7-E352F638AA9F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F9ECFD3-7F8F-4176-868A-E3AC677C0F5B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5289B0B-511D-412A-BF2E-0FB4A23360FF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EFCD8D80-76C2-4571-84A1-E4F08417E0FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B634D04-7F34-4C72-A860-ABE107E924F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72F53208-1363-4CCA-8552-F592ECDE669A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0636EB52-BC10-46AB-91F6-AECF464BF5D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A3F0F40-9E13-491B-A78B-F4E9FF545663}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{304987BB-2EB0-49C5-97D1-5F37F9C64ACA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8839D5E-82C9-49A7-A844-289E27AD6794}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3107E18C-9979-4149-AF05-2CE77BA2343C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB8D1174-6E05-4F9F-8EE7-40A2BB69F902}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F14F242-7AEE-4FC3-935A-7A1107E8C32A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14107,7 +14107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ABFC00-EAEB-4F55-A59F-63879E2EF592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A8CFE-6AF1-4371-BF21-35333FBCAD63}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15341,18 +15341,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9061E9E-F5F6-4A3C-A37E-042FA10FEEDE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15F6BBDC-6634-4452-8E97-B39EBE51A34F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B2D0778-4B52-4236-8AB1-20C79EA82F39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6794033-77B2-4C81-8272-9B276C64833B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D92A991-D070-45D8-8885-6C76314E54CF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E9D38D4C-3820-4AA5-9A4E-B27977740D47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5C42034-E5E7-442D-AD9F-96AA8F77D592}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56F6D14A-2C98-4747-BBB0-B34DD8AB6A6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A3C3385-B5F3-4748-8CF1-1FF65215DC80}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9FF85843-F37B-4E2C-A30F-A533E1BB7FFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9920202-5636-4AB5-AB34-1AEB90AEDD19}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41B90E32-C23C-4DEE-9062-B45570AF46BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A141CB7E-BDFF-4064-9977-2D984D3D796C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84FB7CD5-F114-4A6B-BCBB-3A3033E337D0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63FD7C2A-32F4-47ED-B701-8C6CB5F7BB21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3388449-07F0-480A-A1B5-0AD50475422F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7DF5987E-E1AB-4401-B474-EE69FB54E582}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0BAC315F-83FD-46E3-BF39-6EA48E844894}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35FAAAA2-EC54-4027-9A28-0342B5166A61}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8ECB4BA6-1257-4C1D-9452-CC5F4018B06D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{280DF555-804F-4D9F-B494-BDBBF12F19ED}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{742FCF9E-E1C5-4BBB-8A4B-ECC1BA0E1C51}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE7BDA5A-808F-4356-A4BB-6ED4BA0E7D68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC408D63-CAD1-4567-8582-C246FF73DB15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15365,7 +15365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009A4BFC-490F-4A95-A9B3-BBCF0C3F14E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55F60D1-9EA4-4CCB-9CBB-AD4BCA94EC91}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16599,18 +16599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E957E99B-EBB1-43A7-862B-027917FF837D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77AADE29-9645-4623-B560-319C8F65E210}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89130C33-4947-4002-B0F2-8ABD1EEA3BC7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{706AFB90-32BE-4263-AD1B-60E8BFA00F3F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15245512-E897-4DA3-A091-8D47FADA19EF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A99E9BB4-A495-410F-B466-6D0F01CE24B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{194F382F-4C27-48A9-85E5-15161F86A7D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8061DC2E-BDF4-4875-983A-6F3435A38FD1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C8F1E31-A37C-4901-82DD-0C670DFDE7EA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{148A0454-5123-4F9E-975B-D0B02239DA55}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E793325-07EE-4A43-8A9A-A7CA1828CF08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DE4F835-1F4C-4FE1-9636-EAC5808D3D1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB66FF37-D21D-4C4A-B7C4-1C0734CFCA21}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2FAFB4F-09A6-4722-B367-82CED24C028F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6BCEECFF-6497-49A1-9A22-120B47330EA6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2FF25902-00A6-492C-9B44-9F10FE3DF451}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8524B185-E8B9-48FF-9FE1-06786C232A80}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8A87CC89-5FFE-41AC-AF94-5759F2843D4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{583E5A64-E562-49EA-8BDD-D0C268CB9A36}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D60886F8-CD30-48F4-B870-44AE11E11BA6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AB30729-39DB-46BA-A81F-29157463F2EE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{90258A17-3CAF-4090-843E-CADC87BA1802}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B41B8CD-56EF-4E21-83A8-025CBCA00DA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B82375B-844C-4F70-BF6E-78E6A83DD132}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
